--- a/Project-2 (FInancial_Analysis_Report) - Sachin Gunjal.xlsx
+++ b/Project-2 (FInancial_Analysis_Report) - Sachin Gunjal.xlsx
@@ -1,21 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Data Science\Projects\Excel\Project 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Documents\Git Repo\New folder\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EBCE52A-EE04-4279-BA2C-28F29C5B2BAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32F79D1E-CD4C-44C4-A434-E762C5AC5F3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Project Information" sheetId="1" r:id="rId1"/>
-    <sheet name="Project Worksheets" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="Project Worksheets" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -193,8 +191,8 @@
     <numFmt numFmtId="6" formatCode="&quot;₹&quot;\ #,##0;[Red]&quot;₹&quot;\ \-#,##0"/>
     <numFmt numFmtId="8" formatCode="&quot;₹&quot;\ #,##0.00;[Red]&quot;₹&quot;\ \-#,##0.00"/>
     <numFmt numFmtId="164" formatCode="dd\/mmm\/yyyy"/>
-    <numFmt numFmtId="166" formatCode="[$$-45C]#,##0.00"/>
-    <numFmt numFmtId="170" formatCode="[$-14009]dd/mm/yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="[$$-45C]#,##0.00"/>
+    <numFmt numFmtId="166" formatCode="[$-14009]dd/mm/yyyy;@"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -721,7 +719,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -908,42 +906,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="8" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -996,7 +958,7 @@
     <xf numFmtId="8" fontId="1" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1005,26 +967,54 @@
     <xf numFmtId="10" fontId="1" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="8" fontId="1" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -1046,256 +1036,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5B4D4E4-884D-435C-AFD0-E85411B5DA7C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="190500" y="0"/>
-          <a:ext cx="17383125" cy="733425"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>                                                                                                                                                                                              </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="4000" b="1"/>
-            <a:t>FINANCIAL</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="4000" b="1" baseline="0"/>
-            <a:t> ANALYSIS PROJECT</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="1"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>497417</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>179917</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="64" name="TextBox 63">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F96A713-A112-45AA-B1E8-A4D13EE8FD10}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="323850" y="825500"/>
-          <a:ext cx="17360900" cy="3926417"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg2"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="2000">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="2000" b="1" i="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Point</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="2000" b="1" i="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>s to remember before starting this project:-</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="2000" b="1" i="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Purpose of the project is to give you the fundamental ideas about how the financial functions and terminologies works in Excel so imp thing is to go thorough this documentation very carefully and understand the tems.</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="2000" b="1">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="2000" b="1" i="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>1. In Project Worksheets you dataset is already prepared  so you have to find the values and answers for given functions for solution please go through this sheet </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="2000" b="1" i="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>2. Kindly read all the documentation attached to this project file very carefully because all the important points for making this projects is given there in this documentation</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="2000" b="1">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="2000" b="1" i="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>3. After doing the anlalysis Create a Summary report that what insights and analysis you have find while doing this proects</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="2000" b="1">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1594,26 +1334,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T30" sqref="T30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F155"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A125" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A154" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D138" sqref="D138"/>
     </sheetView>
   </sheetViews>
@@ -1628,13 +1352,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="70"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="93"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
@@ -1697,14 +1421,14 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="67"/>
-      <c r="D6" s="67" t="s">
+      <c r="B6" s="90"/>
+      <c r="D6" s="90" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="67"/>
+      <c r="E6" s="90"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
@@ -1725,14 +1449,14 @@
     </row>
     <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="9" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="71" t="s">
+      <c r="A9" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="72"/>
-      <c r="C9" s="72"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="73"/>
+      <c r="B9" s="95"/>
+      <c r="C9" s="95"/>
+      <c r="D9" s="95"/>
+      <c r="E9" s="95"/>
+      <c r="F9" s="96"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
@@ -1864,7 +1588,7 @@
       <c r="B21" s="2">
         <v>8</v>
       </c>
-      <c r="D21" s="101">
+      <c r="D21" s="87">
         <f>-CUMIPMT(B20,B21,B22,2,3,B24)</f>
         <v>2132.2333374657865</v>
       </c>
@@ -1876,7 +1600,7 @@
       <c r="B22" s="2">
         <v>100000</v>
       </c>
-      <c r="D22" s="102">
+      <c r="D22" s="88">
         <f>D29+D30</f>
         <v>2132.2333374657851</v>
       </c>
@@ -1899,7 +1623,7 @@
       <c r="B24" s="2">
         <v>0</v>
       </c>
-      <c r="D24" s="101">
+      <c r="D24" s="87">
         <f>-CUMPRINC(B20,B21,B22,2,3,B24)</f>
         <v>24352.300989895884</v>
       </c>
@@ -1908,12 +1632,12 @@
       <c r="A25" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="78">
+      <c r="B25" s="64">
         <f>PMT(B20,B21,B22,B23,B24)</f>
         <v>-13242.267163680835</v>
       </c>
-      <c r="C25" s="79"/>
-      <c r="D25" s="82">
+      <c r="C25" s="65"/>
+      <c r="D25" s="68">
         <f>E29+E30</f>
         <v>24352.300989895884</v>
       </c>
@@ -2000,7 +1724,7 @@
         <v>75960.216199510469</v>
       </c>
       <c r="C30" s="3">
-        <f t="shared" ref="C29:C35" si="5">-$B$25</f>
+        <f t="shared" ref="C30:C35" si="5">-$B$25</f>
         <v>13242.267163680835</v>
       </c>
       <c r="D30" s="13">
@@ -2175,7 +1899,7 @@
       <c r="A40" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B40" s="80">
+      <c r="B40" s="66">
         <f>RATE(B38,B39,B37)</f>
         <v>8.4417979849322686E-2</v>
       </c>
@@ -2185,10 +1909,10 @@
       <c r="B41" s="26"/>
     </row>
     <row r="42" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="74" t="s">
+      <c r="A42" s="97" t="s">
         <v>25</v>
       </c>
-      <c r="B42" s="74"/>
+      <c r="B42" s="97"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="23" t="s">
@@ -2218,7 +1942,7 @@
       <c r="A46" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B46" s="81">
+      <c r="B46" s="67">
         <f>NPER(B44,B45,B43)</f>
         <v>11.526704607247604</v>
       </c>
@@ -2228,13 +1952,13 @@
       <c r="B47" s="43"/>
     </row>
     <row r="48" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A48" s="66" t="s">
+      <c r="A48" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="66"/>
-      <c r="C48" s="66"/>
-      <c r="D48" s="66"/>
-      <c r="E48" s="66"/>
+      <c r="B48" s="89"/>
+      <c r="C48" s="89"/>
+      <c r="D48" s="89"/>
+      <c r="E48" s="89"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
@@ -2247,10 +1971,10 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="2"/>
-      <c r="B51" s="75" t="s">
+      <c r="B51" s="98" t="s">
         <v>26</v>
       </c>
-      <c r="C51" s="76"/>
+      <c r="C51" s="99"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="50" t="s">
@@ -2300,11 +2024,11 @@
       <c r="A56" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B56" s="84">
+      <c r="B56" s="70">
         <f>SUM(B53:B55)</f>
         <v>8000</v>
       </c>
-      <c r="C56" s="84">
+      <c r="C56" s="70">
         <f>SUM(C53:C55)</f>
         <v>7000</v>
       </c>
@@ -2313,11 +2037,11 @@
       <c r="A58" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B58" s="82">
+      <c r="B58" s="68">
         <f>NPV(B50,B53,B54,B55)</f>
         <v>4976.851851851854</v>
       </c>
-      <c r="C58" s="82">
+      <c r="C58" s="68">
         <f>NPV(B50,C53:C55)</f>
         <v>5092.592592592594</v>
       </c>
@@ -2326,11 +2050,11 @@
       <c r="A59" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B59" s="83">
+      <c r="B59" s="69">
         <f>B53+NPV(B50,B54,B55)</f>
         <v>5972.2222222222208</v>
       </c>
-      <c r="C59" s="82">
+      <c r="C59" s="68">
         <f>C53+NPV(B50,C54,C55)</f>
         <v>6111.1111111111113</v>
       </c>
@@ -2339,11 +2063,11 @@
       <c r="A60" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B60" s="82">
+      <c r="B60" s="68">
         <f>SQRT(1+B50)*B58</f>
         <v>5451.8680492412386</v>
       </c>
-      <c r="C60" s="82">
+      <c r="C60" s="68">
         <f>SQRT(1+B50)*C58</f>
         <v>5578.6556782933594</v>
       </c>
@@ -2501,14 +2225,14 @@
       <c r="A73" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="B73" s="86">
+      <c r="B73" s="72">
         <f>XNPV(B62,B64:B71,A64:A71)</f>
         <v>17523.654500894841</v>
       </c>
       <c r="D73" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="E73" s="85">
+      <c r="E73" s="71">
         <f>XNPV(E62,E64:E72,D64:D72)</f>
         <v>13940.183426721771</v>
       </c>
@@ -2532,7 +2256,7 @@
       <c r="B76" s="42">
         <v>0.08</v>
       </c>
-      <c r="C76" s="88">
+      <c r="C76" s="74">
         <f>NPV(B76,$A$76:$A$79)</f>
         <v>-304.94918532819202</v>
       </c>
@@ -2544,7 +2268,7 @@
       <c r="B77" s="39">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="C77" s="88">
+      <c r="C77" s="74">
         <f>NPV(B77,$A$76:$A$79)</f>
         <v>-242.25684036084584</v>
       </c>
@@ -2556,7 +2280,7 @@
       <c r="B78" s="39">
         <v>0.09</v>
       </c>
-      <c r="C78" s="88">
+      <c r="C78" s="74">
         <f>NPV(B78,$A$76:$A$79)</f>
         <v>-180.79719811594737</v>
       </c>
@@ -2568,20 +2292,20 @@
       <c r="B79" s="39">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="C79" s="88">
-        <f t="shared" ref="C77:C84" si="6">NPV(B79,$A$76:$A$79)</f>
+      <c r="C79" s="74">
+        <f t="shared" ref="C79:C84" si="6">NPV(B79,$A$76:$A$79)</f>
         <v>-120.54389452858119</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" s="87">
+      <c r="A80" s="73">
         <f>SUM(A76:A79)</f>
         <v>-1500</v>
       </c>
       <c r="B80" s="39">
         <v>0.1</v>
       </c>
-      <c r="C80" s="88">
+      <c r="C80" s="74">
         <f t="shared" si="6"/>
         <v>-61.471210982855276</v>
       </c>
@@ -2591,7 +2315,7 @@
       <c r="B81" s="39">
         <v>0.1053</v>
       </c>
-      <c r="C81" s="88">
+      <c r="C81" s="74">
         <f t="shared" si="6"/>
         <v>-0.11523532268666639</v>
       </c>
@@ -2601,7 +2325,7 @@
       <c r="B82" s="39">
         <v>0.11</v>
       </c>
-      <c r="C82" s="88">
+      <c r="C82" s="74">
         <f>NPV(B82,$A$76:$A$79)</f>
         <v>53.232050020658598</v>
       </c>
@@ -2611,7 +2335,7 @@
       <c r="B83" s="39">
         <v>0.115</v>
       </c>
-      <c r="C83" s="88">
+      <c r="C83" s="74">
         <f t="shared" si="6"/>
         <v>108.91099578129308</v>
       </c>
@@ -2621,7 +2345,7 @@
       <c r="B84" s="40">
         <v>0.12</v>
       </c>
-      <c r="C84" s="88">
+      <c r="C84" s="74">
         <f t="shared" si="6"/>
         <v>163.50609121199599</v>
       </c>
@@ -2630,14 +2354,14 @@
       <c r="B85" s="35"/>
     </row>
     <row r="86" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A86" s="66" t="s">
+      <c r="A86" s="89" t="s">
         <v>38</v>
       </c>
-      <c r="B86" s="66"/>
-      <c r="C86" s="66"/>
-      <c r="D86" s="66"/>
-      <c r="E86" s="66"/>
-      <c r="F86" s="66"/>
+      <c r="B86" s="89"/>
+      <c r="C86" s="89"/>
+      <c r="D86" s="89"/>
+      <c r="E86" s="89"/>
+      <c r="F86" s="89"/>
     </row>
     <row r="87" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="88" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2662,7 +2386,7 @@
         <v>10000</v>
       </c>
       <c r="D89" s="42"/>
-      <c r="E89" s="90">
+      <c r="E89" s="76">
         <f>IRR(C89:C92)</f>
         <v>0.1053100591867342</v>
       </c>
@@ -2677,7 +2401,7 @@
       <c r="D90" s="39">
         <v>0.05</v>
       </c>
-      <c r="E90" s="91">
+      <c r="E90" s="77">
         <f>IRR($C$89:$C$92,D90)</f>
         <v>0.10531005918673531</v>
       </c>
@@ -2692,7 +2416,7 @@
       <c r="D91" s="39">
         <v>0.15</v>
       </c>
-      <c r="E91" s="91">
+      <c r="E91" s="77">
         <f t="shared" ref="E91:E99" si="7">IRR($C$89:$C$92,D91)</f>
         <v>0.10531005918673553</v>
       </c>
@@ -2707,7 +2431,7 @@
       <c r="D92" s="39">
         <v>0.2</v>
       </c>
-      <c r="E92" s="91">
+      <c r="E92" s="77">
         <f t="shared" si="7"/>
         <v>0.10531005918672065</v>
       </c>
@@ -2716,7 +2440,7 @@
       <c r="D93" s="39">
         <v>0.25</v>
       </c>
-      <c r="E93" s="91">
+      <c r="E93" s="77">
         <f t="shared" si="7"/>
         <v>0.10531005918632652</v>
       </c>
@@ -2728,20 +2452,20 @@
       <c r="D94" s="39">
         <v>0.3</v>
       </c>
-      <c r="E94" s="91">
+      <c r="E94" s="77">
         <f t="shared" si="7"/>
         <v>0.10531005918673553</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="89">
+      <c r="A95" s="75">
         <f>IRR(A89:A92)</f>
         <v>0.1053100591867342</v>
       </c>
       <c r="D95" s="39">
         <v>0.35</v>
       </c>
-      <c r="E95" s="91">
+      <c r="E95" s="77">
         <f t="shared" si="7"/>
         <v>0.10531005918673553</v>
       </c>
@@ -2750,7 +2474,7 @@
       <c r="D96" s="39">
         <v>0.4</v>
       </c>
-      <c r="E96" s="91">
+      <c r="E96" s="77">
         <f t="shared" si="7"/>
         <v>0.10531005918673553</v>
       </c>
@@ -2759,7 +2483,7 @@
       <c r="D97" s="39">
         <v>0.45</v>
       </c>
-      <c r="E97" s="91">
+      <c r="E97" s="77">
         <f t="shared" si="7"/>
         <v>0.10531005918673575</v>
       </c>
@@ -2768,7 +2492,7 @@
       <c r="D98" s="39">
         <v>0.5</v>
       </c>
-      <c r="E98" s="91">
+      <c r="E98" s="77">
         <f t="shared" si="7"/>
         <v>0.10531005918673619</v>
       </c>
@@ -2777,7 +2501,7 @@
       <c r="D99" s="40">
         <v>0.55000000000000004</v>
       </c>
-      <c r="E99" s="91">
+      <c r="E99" s="77">
         <f t="shared" si="7"/>
         <v>0.1053100591867373</v>
       </c>
@@ -2799,7 +2523,7 @@
         <v>-20000</v>
       </c>
       <c r="B103" s="12"/>
-      <c r="C103" s="90">
+      <c r="C103" s="76">
         <f>IRR(A103:A106)</f>
         <v>-9.5909414154996986E-2</v>
       </c>
@@ -2811,7 +2535,7 @@
       <c r="B104" s="39">
         <v>0.15</v>
       </c>
-      <c r="C104" s="91">
+      <c r="C104" s="77">
         <f>IRR($A$103:$A$106,B104)</f>
         <v>-9.5909414155059047E-2</v>
       </c>
@@ -2823,8 +2547,8 @@
       <c r="B105" s="39">
         <v>0.2</v>
       </c>
-      <c r="C105" s="91">
-        <f t="shared" ref="C105:C113" si="8">IRR($A$103:$A$106,B105)</f>
+      <c r="C105" s="77">
+        <f t="shared" ref="C105:C112" si="8">IRR($A$103:$A$106,B105)</f>
         <v>-9.5909414154996986E-2</v>
       </c>
     </row>
@@ -2835,7 +2559,7 @@
       <c r="B106" s="39">
         <v>0.25</v>
       </c>
-      <c r="C106" s="91">
+      <c r="C106" s="77">
         <f t="shared" si="8"/>
         <v>-9.5909414153667494E-2</v>
       </c>
@@ -2844,7 +2568,7 @@
       <c r="B107" s="39">
         <v>0.3</v>
       </c>
-      <c r="C107" s="91">
+      <c r="C107" s="77">
         <f t="shared" si="8"/>
         <v>-9.590941415486065E-2</v>
       </c>
@@ -2853,7 +2577,7 @@
       <c r="B108" s="39">
         <v>0.35</v>
       </c>
-      <c r="C108" s="91">
+      <c r="C108" s="77">
         <f t="shared" si="8"/>
         <v>-9.5909414154996986E-2</v>
       </c>
@@ -2862,7 +2586,7 @@
       <c r="B109" s="39">
         <v>0.4</v>
       </c>
-      <c r="C109" s="91">
+      <c r="C109" s="77">
         <f t="shared" si="8"/>
         <v>-9.5909414154997874E-2</v>
       </c>
@@ -2871,7 +2595,7 @@
       <c r="B110" s="39">
         <v>0.45</v>
       </c>
-      <c r="C110" s="91">
+      <c r="C110" s="77">
         <f>IRR($A$103:$A$106,B110)</f>
         <v>2.160916914048538</v>
       </c>
@@ -2880,7 +2604,7 @@
       <c r="B111" s="39">
         <v>0.5</v>
       </c>
-      <c r="C111" s="91">
+      <c r="C111" s="77">
         <f t="shared" si="8"/>
         <v>2.1609169140534945</v>
       </c>
@@ -2889,7 +2613,7 @@
       <c r="B112" s="39">
         <v>0.55000000000000004</v>
       </c>
-      <c r="C112" s="91">
+      <c r="C112" s="77">
         <f t="shared" si="8"/>
         <v>2.1609169140387743</v>
       </c>
@@ -2898,7 +2622,7 @@
       <c r="B113" s="40">
         <v>0.6</v>
       </c>
-      <c r="C113" s="91">
+      <c r="C113" s="77">
         <f>IRR($A$103:$A$106,B113)</f>
         <v>2.1609169140492739</v>
       </c>
@@ -3053,7 +2777,7 @@
       <c r="C130" s="2">
         <v>-1000</v>
       </c>
-      <c r="E130" s="99">
+      <c r="E130" s="85">
         <v>42220</v>
       </c>
       <c r="F130" s="18">
@@ -3070,7 +2794,7 @@
       <c r="C131" s="2">
         <v>400</v>
       </c>
-      <c r="E131" s="99">
+      <c r="E131" s="85">
         <v>42231</v>
       </c>
       <c r="F131" s="18">
@@ -3087,7 +2811,7 @@
       <c r="C132" s="2">
         <v>400</v>
       </c>
-      <c r="E132" s="99">
+      <c r="E132" s="85">
         <v>42444</v>
       </c>
       <c r="F132" s="18">
@@ -3104,7 +2828,7 @@
       <c r="C133" s="2">
         <v>300</v>
       </c>
-      <c r="E133" s="99">
+      <c r="E133" s="85">
         <v>42485</v>
       </c>
       <c r="F133" s="18">
@@ -3121,7 +2845,7 @@
       <c r="C134" s="2">
         <v>300</v>
       </c>
-      <c r="E134" s="100"/>
+      <c r="E134" s="86"/>
     </row>
     <row r="135" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A135" s="36">
@@ -3136,7 +2860,7 @@
       <c r="E135" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="F135" s="98">
+      <c r="F135" s="84">
         <f>XIRR(F130:F133,E130:E133)</f>
         <v>0.50548281073570245</v>
       </c>
@@ -3145,11 +2869,11 @@
       <c r="A136" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="B136" s="92">
+      <c r="B136" s="78">
         <f>IRR(B130:B135)</f>
         <v>0.17318426166949052</v>
       </c>
-      <c r="C136" s="93">
+      <c r="C136" s="79">
         <f>IRR(C130:C135)</f>
         <v>0.20494783010707418</v>
       </c>
@@ -3158,10 +2882,10 @@
       <c r="A137" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="B137" s="94">
+      <c r="B137" s="80">
         <v>815.89</v>
       </c>
-      <c r="C137" s="95">
+      <c r="C137" s="81">
         <v>552.4</v>
       </c>
     </row>
@@ -3226,7 +2950,7 @@
       <c r="A149" s="59">
         <v>0.1</v>
       </c>
-      <c r="B149" s="96">
+      <c r="B149" s="82">
         <f>NPV(A149,$B$144:$B$146)</f>
         <v>-0.70323065364387649</v>
       </c>
@@ -3235,7 +2959,7 @@
       <c r="A150" s="56">
         <v>0.25</v>
       </c>
-      <c r="B150" s="96">
+      <c r="B150" s="82">
         <f t="shared" ref="B150:B153" si="10">NPV(A150,$B$144:$B$146)</f>
         <v>0</v>
       </c>
@@ -3244,7 +2968,7 @@
       <c r="A151" s="56">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B151" s="96">
+      <c r="B151" s="82">
         <f t="shared" si="10"/>
         <v>0.42587193607601764</v>
       </c>
@@ -3253,7 +2977,7 @@
       <c r="A152" s="56">
         <v>4</v>
       </c>
-      <c r="B152" s="96">
+      <c r="B152" s="82">
         <f t="shared" si="10"/>
         <v>-2.2204460492503132E-17</v>
       </c>
@@ -3262,7 +2986,7 @@
       <c r="A153" s="57">
         <v>5</v>
       </c>
-      <c r="B153" s="96">
+      <c r="B153" s="82">
         <f t="shared" si="10"/>
         <v>-3.5185185185185187E-2</v>
       </c>
@@ -3271,7 +2995,7 @@
       <c r="A155" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="B155" s="97">
+      <c r="B155" s="83">
         <f>MIRR(B144:B146,B140,B141)</f>
         <v>6.554621671065064E-2</v>
       </c>
@@ -3288,58 +3012,16 @@
     <mergeCell ref="A48:E48"/>
   </mergeCells>
   <conditionalFormatting sqref="B149:B153">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C103:C113">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{532D543B-4E62-4E97-9825-C194EF8045C1}">
-  <dimension ref="B3:K15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C3" s="64"/>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B6" s="65"/>
-      <c r="K6" s="64"/>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B8" s="65"/>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B10" s="65"/>
-      <c r="K10" s="65"/>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="K11" s="65"/>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B12" s="64"/>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="I15" s="77"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>